--- a/docs/StructureDefinition-BRImunobiologicoAdministrado-3.0.xlsx
+++ b/docs/StructureDefinition-BRImunobiologicoAdministrado-3.0.xlsx
@@ -587,7 +587,7 @@
     <t>Estado do Evento</t>
   </si>
   <si>
-    <t>http://www.saude.gov.br/fhir/r4/ValueSet/BREstadoEvento-1.0</t>
+    <t>http://hl7.org/fhir/ValueSet/immunization-status</t>
   </si>
   <si>
     <t>Event.status</t>

--- a/docs/StructureDefinition-BRImunobiologicoAdministrado-3.0.xlsx
+++ b/docs/StructureDefinition-BRImunobiologicoAdministrado-3.0.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7076" uniqueCount="732">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7074" uniqueCount="731">
   <si>
     <t>Property</t>
   </si>
@@ -57,70 +57,70 @@
     <t>Experimental</t>
   </si>
   <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>2021-09-03</t>
+  </si>
+  <si>
+    <t>Publisher</t>
+  </si>
+  <si>
+    <t>Ministério da Saúde do Brasil</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>null (http://www.saude.gov.br)</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Representa um imunobiológico administrado em Rotina (Portaria Conjunta SAES/SVSA/SEIDIGI Nº 25, de 27 de Novembro de 2023).</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t>FHIR Version</t>
+  </si>
+  <si>
+    <t>4.0.1</t>
+  </si>
+  <si>
+    <t>Kind</t>
+  </si>
+  <si>
+    <t>resource</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Immunization</t>
+  </si>
+  <si>
+    <t>Base Definition</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/StructureDefinition/Immunization</t>
+  </si>
+  <si>
+    <t>Abstract</t>
+  </si>
+  <si>
     <t>false</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>2021-09-03</t>
-  </si>
-  <si>
-    <t>Publisher</t>
-  </si>
-  <si>
-    <t>Ministério da Saúde do Brasil</t>
-  </si>
-  <si>
-    <t>Contact</t>
-  </si>
-  <si>
-    <t>null (http://www.saude.gov.br)</t>
-  </si>
-  <si>
-    <t>Jurisdiction</t>
-  </si>
-  <si>
-    <t>Brazil</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Representa um imunobiológico administrado em Rotina (Portaria Conjunta SAES/SVSA/SEIDIGI Nº 25, de 27 de Novembro de 2023).</t>
-  </si>
-  <si>
-    <t>Purpose</t>
-  </si>
-  <si>
-    <t>Copyright</t>
-  </si>
-  <si>
-    <t>FHIR Version</t>
-  </si>
-  <si>
-    <t>4.0.1</t>
-  </si>
-  <si>
-    <t>Kind</t>
-  </si>
-  <si>
-    <t>resource</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Immunization</t>
-  </si>
-  <si>
-    <t>Base Definition</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Immunization</t>
-  </si>
-  <si>
-    <t>Abstract</t>
   </si>
   <si>
     <t>Derivation</t>
@@ -587,7 +587,7 @@
     <t>Estado do Evento</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/immunization-status</t>
+    <t>http://www.saude.gov.br/fhir/r4/ValueSet/BREstadoEvento-1.0</t>
   </si>
   <si>
     <t>Event.status</t>
@@ -1649,16 +1649,13 @@
     <t>Immunization.performer.function</t>
   </si>
   <si>
-    <t>Ocupação do Profissional</t>
-  </si>
-  <si>
-    <t>Atividade desempenhada pelo profissional que administrou o imunobiológico.</t>
-  </si>
-  <si>
-    <t>The role a practitioner or organization plays in the immunization event.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/immunization-function</t>
+    <t>Especialidade do profissional prescritor</t>
+  </si>
+  <si>
+    <t>Identifica a especialidade do profissional que prescreveu a administração do imunobiológico por meio do Código Brasileiro de Ocupações (CBO). Regra negocial: Quando a estratégia de vacinação for Especial, o campo deve ser obrigatório.</t>
+  </si>
+  <si>
+    <t>http://www.saude.gov.br/fhir/r4/ValueSet/BROcupacao-1.0</t>
   </si>
   <si>
     <t>Event.performer.function</t>
@@ -2481,100 +2478,98 @@
       <c r="A7" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="B7" t="s" s="2">
-        <v>13</v>
-      </c>
+      <c r="B7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s" s="2">
         <v>14</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s" s="2">
         <v>16</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s" s="2">
         <v>18</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s" s="2">
         <v>20</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s" s="2">
         <v>22</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>23</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>26</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>27</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s" s="2">
         <v>28</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>29</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s" s="2">
         <v>30</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>31</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s" s="2">
         <v>32</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>33</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B19" t="s" s="2">
         <v>34</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>13</v>
       </c>
     </row>
     <row r="20">
@@ -2601,15 +2596,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="95.890625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="55.8203125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="28.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="37.5859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="21.7734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.47265625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.87890625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.2734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.7265625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="91.44140625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="53.23046875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="27.2265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="35.84375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="20.76171875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.265625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65234375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.609375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.1796875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2620,27 +2615,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="36.22265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.4609375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="15.86328125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.203125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="91.51171875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="65.625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.52734375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="38.34375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.06640625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.421875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="41.2421875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.28515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.6875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="34.54296875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.7421875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.12890625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.40625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="15.85546875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="87.265625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="62.578125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.2734375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.1171875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.56640625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.3671875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.84375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="39.328125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.85546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.23828125" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.359375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="136.8359375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="217.61328125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="32.4453125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="150.49609375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.13671875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="130.484375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="207.515625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="30.9375" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="143.515625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2770,10 +2765,10 @@
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -2853,7 +2848,7 @@
         <v>82</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>79</v>
@@ -16691,7 +16686,7 @@
         <v>79</v>
       </c>
       <c r="G121" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H121" t="s" s="2">
         <v>82</v>
@@ -16736,13 +16731,11 @@
         <v>82</v>
       </c>
       <c r="X121" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="Y121" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="Y121" s="2"/>
+      <c r="Z121" t="s" s="2">
         <v>530</v>
-      </c>
-      <c r="Z121" t="s" s="2">
-        <v>531</v>
       </c>
       <c r="AA121" t="s" s="2">
         <v>82</v>
@@ -16775,13 +16768,13 @@
         <v>102</v>
       </c>
       <c r="AK121" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="AL121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM121" t="s" s="2">
         <v>532</v>
-      </c>
-      <c r="AL121" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM121" t="s" s="2">
-        <v>533</v>
       </c>
       <c r="AN121" t="s" s="2">
         <v>82</v>
@@ -16792,10 +16785,10 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -16907,10 +16900,10 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -17024,10 +17017,10 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -17143,10 +17136,10 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -17258,10 +17251,10 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -17375,10 +17368,10 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -17494,10 +17487,10 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -17611,10 +17604,10 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -17728,10 +17721,10 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -17845,10 +17838,10 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -17964,10 +17957,10 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -18083,10 +18076,10 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -18109,16 +18102,16 @@
         <v>81</v>
       </c>
       <c r="K133" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="L133" t="s" s="2">
         <v>546</v>
       </c>
-      <c r="L133" t="s" s="2">
+      <c r="M133" t="s" s="2">
         <v>547</v>
       </c>
-      <c r="M133" t="s" s="2">
+      <c r="N133" t="s" s="2">
         <v>548</v>
-      </c>
-      <c r="N133" t="s" s="2">
-        <v>549</v>
       </c>
       <c r="O133" s="2"/>
       <c r="P133" t="s" s="2">
@@ -18168,7 +18161,7 @@
         <v>82</v>
       </c>
       <c r="AF133" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AG133" t="s" s="2">
         <v>91</v>
@@ -18183,16 +18176,16 @@
         <v>102</v>
       </c>
       <c r="AK133" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="AL133" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM133" t="s" s="2">
         <v>550</v>
       </c>
-      <c r="AL133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM133" t="s" s="2">
+      <c r="AN133" t="s" s="2">
         <v>551</v>
-      </c>
-      <c r="AN133" t="s" s="2">
-        <v>552</v>
       </c>
       <c r="AO133" t="s" s="2">
         <v>82</v>
@@ -18200,10 +18193,10 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -18315,10 +18308,10 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -18432,10 +18425,10 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -18549,10 +18542,10 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -18666,10 +18659,10 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -18783,10 +18776,10 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -18900,10 +18893,10 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -18926,13 +18919,13 @@
         <v>81</v>
       </c>
       <c r="K140" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="L140" t="s" s="2">
         <v>560</v>
       </c>
-      <c r="L140" t="s" s="2">
+      <c r="M140" t="s" s="2">
         <v>561</v>
-      </c>
-      <c r="M140" t="s" s="2">
-        <v>562</v>
       </c>
       <c r="N140" s="2"/>
       <c r="O140" s="2"/>
@@ -18983,7 +18976,7 @@
         <v>82</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>79</v>
@@ -18998,13 +18991,13 @@
         <v>102</v>
       </c>
       <c r="AK140" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="AL140" t="s" s="2">
         <v>563</v>
       </c>
-      <c r="AL140" t="s" s="2">
+      <c r="AM140" t="s" s="2">
         <v>564</v>
-      </c>
-      <c r="AM140" t="s" s="2">
-        <v>565</v>
       </c>
       <c r="AN140" t="s" s="2">
         <v>82</v>
@@ -19015,10 +19008,10 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
@@ -19044,10 +19037,10 @@
         <v>187</v>
       </c>
       <c r="L141" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="M141" t="s" s="2">
         <v>567</v>
-      </c>
-      <c r="M141" t="s" s="2">
-        <v>568</v>
       </c>
       <c r="N141" s="2"/>
       <c r="O141" s="2"/>
@@ -19077,11 +19070,11 @@
         <v>191</v>
       </c>
       <c r="Y141" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="Z141" t="s" s="2">
         <v>569</v>
       </c>
-      <c r="Z141" t="s" s="2">
-        <v>570</v>
-      </c>
       <c r="AA141" t="s" s="2">
         <v>82</v>
       </c>
@@ -19098,7 +19091,7 @@
         <v>82</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="AG141" t="s" s="2">
         <v>79</v>
@@ -19113,13 +19106,13 @@
         <v>102</v>
       </c>
       <c r="AK141" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="AL141" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM141" t="s" s="2">
         <v>571</v>
-      </c>
-      <c r="AL141" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM141" t="s" s="2">
-        <v>572</v>
       </c>
       <c r="AN141" t="s" s="2">
         <v>82</v>
@@ -19130,10 +19123,10 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -19156,13 +19149,13 @@
         <v>82</v>
       </c>
       <c r="K142" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="L142" t="s" s="2">
         <v>574</v>
       </c>
-      <c r="L142" t="s" s="2">
+      <c r="M142" t="s" s="2">
         <v>575</v>
-      </c>
-      <c r="M142" t="s" s="2">
-        <v>576</v>
       </c>
       <c r="N142" s="2"/>
       <c r="O142" s="2"/>
@@ -19213,7 +19206,7 @@
         <v>82</v>
       </c>
       <c r="AF142" t="s" s="2">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="AG142" t="s" s="2">
         <v>79</v>
@@ -19228,7 +19221,7 @@
         <v>102</v>
       </c>
       <c r="AK142" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AL142" t="s" s="2">
         <v>82</v>
@@ -19245,10 +19238,10 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -19274,20 +19267,20 @@
         <v>257</v>
       </c>
       <c r="L143" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="M143" t="s" s="2">
         <v>579</v>
       </c>
-      <c r="M143" t="s" s="2">
+      <c r="N143" t="s" s="2">
         <v>580</v>
-      </c>
-      <c r="N143" t="s" s="2">
-        <v>581</v>
       </c>
       <c r="O143" s="2"/>
       <c r="P143" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q143" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="R143" t="s" s="2">
         <v>82</v>
@@ -19332,7 +19325,7 @@
         <v>82</v>
       </c>
       <c r="AF143" t="s" s="2">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="AG143" t="s" s="2">
         <v>79</v>
@@ -19350,7 +19343,7 @@
         <v>82</v>
       </c>
       <c r="AL143" t="s" s="2">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="AM143" t="s" s="2">
         <v>133</v>
@@ -19364,10 +19357,10 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -19393,10 +19386,10 @@
         <v>187</v>
       </c>
       <c r="L144" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="M144" t="s" s="2">
         <v>585</v>
-      </c>
-      <c r="M144" t="s" s="2">
-        <v>586</v>
       </c>
       <c r="N144" s="2"/>
       <c r="O144" s="2"/>
@@ -19426,11 +19419,11 @@
         <v>191</v>
       </c>
       <c r="Y144" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="Z144" t="s" s="2">
         <v>587</v>
       </c>
-      <c r="Z144" t="s" s="2">
-        <v>588</v>
-      </c>
       <c r="AA144" t="s" s="2">
         <v>82</v>
       </c>
@@ -19447,7 +19440,7 @@
         <v>82</v>
       </c>
       <c r="AF144" t="s" s="2">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="AG144" t="s" s="2">
         <v>79</v>
@@ -19479,10 +19472,10 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -19508,10 +19501,10 @@
         <v>514</v>
       </c>
       <c r="L145" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="M145" t="s" s="2">
         <v>590</v>
-      </c>
-      <c r="M145" t="s" s="2">
-        <v>591</v>
       </c>
       <c r="N145" s="2"/>
       <c r="O145" s="2"/>
@@ -19562,7 +19555,7 @@
         <v>82</v>
       </c>
       <c r="AF145" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AG145" t="s" s="2">
         <v>79</v>
@@ -19574,7 +19567,7 @@
         <v>82</v>
       </c>
       <c r="AJ145" t="s" s="2">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="AK145" t="s" s="2">
         <v>82</v>
@@ -19594,10 +19587,10 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -19709,10 +19702,10 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -19826,10 +19819,10 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
@@ -19945,10 +19938,10 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -19974,10 +19967,10 @@
         <v>206</v>
       </c>
       <c r="L149" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="M149" t="s" s="2">
         <v>597</v>
-      </c>
-      <c r="M149" t="s" s="2">
-        <v>598</v>
       </c>
       <c r="N149" s="2"/>
       <c r="O149" s="2"/>
@@ -20028,7 +20021,7 @@
         <v>82</v>
       </c>
       <c r="AF149" t="s" s="2">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="AG149" t="s" s="2">
         <v>79</v>
@@ -20046,7 +20039,7 @@
         <v>82</v>
       </c>
       <c r="AL149" t="s" s="2">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="AM149" t="s" s="2">
         <v>133</v>
@@ -20060,10 +20053,10 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -20089,10 +20082,10 @@
         <v>104</v>
       </c>
       <c r="L150" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="M150" t="s" s="2">
         <v>601</v>
-      </c>
-      <c r="M150" t="s" s="2">
-        <v>602</v>
       </c>
       <c r="N150" s="2"/>
       <c r="O150" s="2"/>
@@ -20143,7 +20136,7 @@
         <v>82</v>
       </c>
       <c r="AF150" t="s" s="2">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AG150" t="s" s="2">
         <v>79</v>
@@ -20175,10 +20168,10 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -20204,10 +20197,10 @@
         <v>369</v>
       </c>
       <c r="L151" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="M151" t="s" s="2">
         <v>604</v>
-      </c>
-      <c r="M151" t="s" s="2">
-        <v>605</v>
       </c>
       <c r="N151" s="2"/>
       <c r="O151" s="2"/>
@@ -20258,7 +20251,7 @@
         <v>82</v>
       </c>
       <c r="AF151" t="s" s="2">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="AG151" t="s" s="2">
         <v>79</v>
@@ -20276,7 +20269,7 @@
         <v>82</v>
       </c>
       <c r="AL151" t="s" s="2">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="AM151" t="s" s="2">
         <v>133</v>
@@ -20290,10 +20283,10 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -20319,10 +20312,10 @@
         <v>369</v>
       </c>
       <c r="L152" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="M152" t="s" s="2">
         <v>608</v>
-      </c>
-      <c r="M152" t="s" s="2">
-        <v>609</v>
       </c>
       <c r="N152" s="2"/>
       <c r="O152" s="2"/>
@@ -20373,7 +20366,7 @@
         <v>82</v>
       </c>
       <c r="AF152" t="s" s="2">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="AG152" t="s" s="2">
         <v>79</v>
@@ -20391,7 +20384,7 @@
         <v>82</v>
       </c>
       <c r="AL152" t="s" s="2">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AM152" t="s" s="2">
         <v>133</v>
@@ -20405,10 +20398,10 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
@@ -20434,10 +20427,10 @@
         <v>187</v>
       </c>
       <c r="L153" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="M153" t="s" s="2">
         <v>612</v>
-      </c>
-      <c r="M153" t="s" s="2">
-        <v>613</v>
       </c>
       <c r="N153" s="2"/>
       <c r="O153" s="2"/>
@@ -20467,11 +20460,11 @@
         <v>191</v>
       </c>
       <c r="Y153" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="Z153" t="s" s="2">
         <v>614</v>
       </c>
-      <c r="Z153" t="s" s="2">
-        <v>615</v>
-      </c>
       <c r="AA153" t="s" s="2">
         <v>82</v>
       </c>
@@ -20488,7 +20481,7 @@
         <v>82</v>
       </c>
       <c r="AF153" t="s" s="2">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="AG153" t="s" s="2">
         <v>79</v>
@@ -20506,7 +20499,7 @@
         <v>82</v>
       </c>
       <c r="AL153" t="s" s="2">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="AM153" t="s" s="2">
         <v>133</v>
@@ -20520,10 +20513,10 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -20549,10 +20542,10 @@
         <v>187</v>
       </c>
       <c r="L154" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="M154" t="s" s="2">
         <v>618</v>
-      </c>
-      <c r="M154" t="s" s="2">
-        <v>619</v>
       </c>
       <c r="N154" s="2"/>
       <c r="O154" s="2"/>
@@ -20582,11 +20575,11 @@
         <v>191</v>
       </c>
       <c r="Y154" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="Z154" t="s" s="2">
         <v>620</v>
       </c>
-      <c r="Z154" t="s" s="2">
-        <v>621</v>
-      </c>
       <c r="AA154" t="s" s="2">
         <v>82</v>
       </c>
@@ -20603,7 +20596,7 @@
         <v>82</v>
       </c>
       <c r="AF154" t="s" s="2">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="AG154" t="s" s="2">
         <v>79</v>
@@ -20635,10 +20628,10 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -20664,13 +20657,13 @@
         <v>514</v>
       </c>
       <c r="L155" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="M155" t="s" s="2">
         <v>623</v>
       </c>
-      <c r="M155" t="s" s="2">
+      <c r="N155" t="s" s="2">
         <v>624</v>
-      </c>
-      <c r="N155" t="s" s="2">
-        <v>625</v>
       </c>
       <c r="O155" s="2"/>
       <c r="P155" t="s" s="2">
@@ -20720,7 +20713,7 @@
         <v>82</v>
       </c>
       <c r="AF155" t="s" s="2">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="AG155" t="s" s="2">
         <v>79</v>
@@ -20738,10 +20731,10 @@
         <v>82</v>
       </c>
       <c r="AL155" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="AM155" t="s" s="2">
         <v>626</v>
-      </c>
-      <c r="AM155" t="s" s="2">
-        <v>627</v>
       </c>
       <c r="AN155" t="s" s="2">
         <v>82</v>
@@ -20752,10 +20745,10 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -20867,10 +20860,10 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -20984,10 +20977,10 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
@@ -21103,10 +21096,10 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
@@ -21132,10 +21125,10 @@
         <v>369</v>
       </c>
       <c r="L159" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="M159" t="s" s="2">
         <v>632</v>
-      </c>
-      <c r="M159" t="s" s="2">
-        <v>633</v>
       </c>
       <c r="N159" s="2"/>
       <c r="O159" s="2"/>
@@ -21186,7 +21179,7 @@
         <v>82</v>
       </c>
       <c r="AF159" t="s" s="2">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="AG159" t="s" s="2">
         <v>79</v>
@@ -21204,7 +21197,7 @@
         <v>82</v>
       </c>
       <c r="AL159" t="s" s="2">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="AM159" t="s" s="2">
         <v>375</v>
@@ -21218,10 +21211,10 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -21244,13 +21237,13 @@
         <v>82</v>
       </c>
       <c r="K160" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="L160" t="s" s="2">
         <v>636</v>
       </c>
-      <c r="L160" t="s" s="2">
+      <c r="M160" t="s" s="2">
         <v>637</v>
-      </c>
-      <c r="M160" t="s" s="2">
-        <v>638</v>
       </c>
       <c r="N160" s="2"/>
       <c r="O160" s="2"/>
@@ -21301,7 +21294,7 @@
         <v>82</v>
       </c>
       <c r="AF160" t="s" s="2">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="AG160" t="s" s="2">
         <v>79</v>
@@ -21319,10 +21312,10 @@
         <v>82</v>
       </c>
       <c r="AL160" t="s" s="2">
+        <v>638</v>
+      </c>
+      <c r="AM160" t="s" s="2">
         <v>639</v>
-      </c>
-      <c r="AM160" t="s" s="2">
-        <v>640</v>
       </c>
       <c r="AN160" t="s" s="2">
         <v>82</v>
@@ -21333,10 +21326,10 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
@@ -21362,10 +21355,10 @@
         <v>257</v>
       </c>
       <c r="L161" t="s" s="2">
+        <v>641</v>
+      </c>
+      <c r="M161" t="s" s="2">
         <v>642</v>
-      </c>
-      <c r="M161" t="s" s="2">
-        <v>643</v>
       </c>
       <c r="N161" s="2"/>
       <c r="O161" s="2"/>
@@ -21416,7 +21409,7 @@
         <v>82</v>
       </c>
       <c r="AF161" t="s" s="2">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="AG161" t="s" s="2">
         <v>79</v>
@@ -21434,10 +21427,10 @@
         <v>82</v>
       </c>
       <c r="AL161" t="s" s="2">
+        <v>643</v>
+      </c>
+      <c r="AM161" t="s" s="2">
         <v>644</v>
-      </c>
-      <c r="AM161" t="s" s="2">
-        <v>645</v>
       </c>
       <c r="AN161" t="s" s="2">
         <v>82</v>
@@ -21448,10 +21441,10 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
@@ -21477,10 +21470,10 @@
         <v>514</v>
       </c>
       <c r="L162" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="M162" t="s" s="2">
         <v>647</v>
-      </c>
-      <c r="M162" t="s" s="2">
-        <v>648</v>
       </c>
       <c r="N162" s="2"/>
       <c r="O162" s="2"/>
@@ -21531,7 +21524,7 @@
         <v>82</v>
       </c>
       <c r="AF162" t="s" s="2">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="AG162" t="s" s="2">
         <v>79</v>
@@ -21563,10 +21556,10 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" t="s" s="2">
@@ -21678,10 +21671,10 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" t="s" s="2">
@@ -21791,13 +21784,13 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="B165" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="C165" t="s" s="2">
         <v>651</v>
-      </c>
-      <c r="B165" t="s" s="2">
-        <v>650</v>
-      </c>
-      <c r="C165" t="s" s="2">
-        <v>652</v>
       </c>
       <c r="D165" t="s" s="2">
         <v>82</v>
@@ -21819,13 +21812,13 @@
         <v>82</v>
       </c>
       <c r="K165" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="L165" t="s" s="2">
         <v>653</v>
       </c>
-      <c r="L165" t="s" s="2">
+      <c r="M165" t="s" s="2">
         <v>654</v>
-      </c>
-      <c r="M165" t="s" s="2">
-        <v>655</v>
       </c>
       <c r="N165" s="2"/>
       <c r="O165" s="2"/>
@@ -21908,16 +21901,16 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
+        <v>655</v>
+      </c>
+      <c r="B166" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="C166" t="s" s="2">
         <v>656</v>
       </c>
-      <c r="B166" t="s" s="2">
-        <v>650</v>
-      </c>
-      <c r="C166" t="s" s="2">
+      <c r="D166" t="s" s="2">
         <v>657</v>
-      </c>
-      <c r="D166" t="s" s="2">
-        <v>658</v>
       </c>
       <c r="E166" s="2"/>
       <c r="F166" t="s" s="2">
@@ -21936,13 +21929,13 @@
         <v>82</v>
       </c>
       <c r="K166" t="s" s="2">
+        <v>658</v>
+      </c>
+      <c r="L166" t="s" s="2">
         <v>659</v>
       </c>
-      <c r="L166" t="s" s="2">
+      <c r="M166" t="s" s="2">
         <v>660</v>
-      </c>
-      <c r="M166" t="s" s="2">
-        <v>661</v>
       </c>
       <c r="N166" s="2"/>
       <c r="O166" s="2"/>
@@ -22025,10 +22018,10 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
+        <v>661</v>
+      </c>
+      <c r="B167" t="s" s="2">
         <v>662</v>
-      </c>
-      <c r="B167" t="s" s="2">
-        <v>663</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" t="s" s="2">
@@ -22140,10 +22133,10 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
+        <v>663</v>
+      </c>
+      <c r="B168" t="s" s="2">
         <v>664</v>
-      </c>
-      <c r="B168" t="s" s="2">
-        <v>665</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" t="s" s="2">
@@ -22255,19 +22248,19 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
+        <v>665</v>
+      </c>
+      <c r="B169" t="s" s="2">
+        <v>664</v>
+      </c>
+      <c r="C169" t="s" s="2">
         <v>666</v>
       </c>
-      <c r="B169" t="s" s="2">
-        <v>665</v>
-      </c>
-      <c r="C169" t="s" s="2">
+      <c r="D169" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E169" t="s" s="2">
         <v>667</v>
-      </c>
-      <c r="D169" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E169" t="s" s="2">
-        <v>668</v>
       </c>
       <c r="F169" t="s" s="2">
         <v>79</v>
@@ -22288,10 +22281,10 @@
         <v>137</v>
       </c>
       <c r="L169" t="s" s="2">
+        <v>668</v>
+      </c>
+      <c r="M169" t="s" s="2">
         <v>669</v>
-      </c>
-      <c r="M169" t="s" s="2">
-        <v>670</v>
       </c>
       <c r="N169" s="2"/>
       <c r="O169" s="2"/>
@@ -22374,10 +22367,10 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
+        <v>670</v>
+      </c>
+      <c r="B170" t="s" s="2">
         <v>671</v>
-      </c>
-      <c r="B170" t="s" s="2">
-        <v>672</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" t="s" s="2">
@@ -22489,10 +22482,10 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
+        <v>672</v>
+      </c>
+      <c r="B171" t="s" s="2">
         <v>673</v>
-      </c>
-      <c r="B171" t="s" s="2">
-        <v>674</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" t="s" s="2">
@@ -22606,10 +22599,10 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
+        <v>674</v>
+      </c>
+      <c r="B172" t="s" s="2">
         <v>675</v>
-      </c>
-      <c r="B172" t="s" s="2">
-        <v>676</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" t="s" s="2">
@@ -22635,13 +22628,13 @@
         <v>104</v>
       </c>
       <c r="L172" t="s" s="2">
+        <v>676</v>
+      </c>
+      <c r="M172" t="s" s="2">
         <v>677</v>
       </c>
-      <c r="M172" t="s" s="2">
+      <c r="N172" t="s" s="2">
         <v>678</v>
-      </c>
-      <c r="N172" t="s" s="2">
-        <v>679</v>
       </c>
       <c r="O172" s="2"/>
       <c r="P172" t="s" s="2">
@@ -22649,7 +22642,7 @@
       </c>
       <c r="Q172" s="2"/>
       <c r="R172" t="s" s="2">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="S172" t="s" s="2">
         <v>82</v>
@@ -22691,7 +22684,7 @@
         <v>82</v>
       </c>
       <c r="AF172" t="s" s="2">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="AG172" t="s" s="2">
         <v>91</v>
@@ -22723,10 +22716,10 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
+        <v>680</v>
+      </c>
+      <c r="B173" t="s" s="2">
         <v>681</v>
-      </c>
-      <c r="B173" t="s" s="2">
-        <v>682</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" t="s" s="2">
@@ -22752,10 +22745,10 @@
         <v>206</v>
       </c>
       <c r="L173" t="s" s="2">
+        <v>682</v>
+      </c>
+      <c r="M173" t="s" s="2">
         <v>683</v>
-      </c>
-      <c r="M173" t="s" s="2">
-        <v>684</v>
       </c>
       <c r="N173" s="2"/>
       <c r="O173" s="2"/>
@@ -22806,7 +22799,7 @@
         <v>82</v>
       </c>
       <c r="AF173" t="s" s="2">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="AG173" t="s" s="2">
         <v>79</v>
@@ -22838,19 +22831,19 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
+        <v>685</v>
+      </c>
+      <c r="B174" t="s" s="2">
+        <v>664</v>
+      </c>
+      <c r="C174" t="s" s="2">
         <v>686</v>
       </c>
-      <c r="B174" t="s" s="2">
-        <v>665</v>
-      </c>
-      <c r="C174" t="s" s="2">
+      <c r="D174" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E174" t="s" s="2">
         <v>687</v>
-      </c>
-      <c r="D174" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E174" t="s" s="2">
-        <v>688</v>
       </c>
       <c r="F174" t="s" s="2">
         <v>79</v>
@@ -22871,10 +22864,10 @@
         <v>137</v>
       </c>
       <c r="L174" t="s" s="2">
+        <v>688</v>
+      </c>
+      <c r="M174" t="s" s="2">
         <v>689</v>
-      </c>
-      <c r="M174" t="s" s="2">
-        <v>690</v>
       </c>
       <c r="N174" s="2"/>
       <c r="O174" s="2"/>
@@ -22957,10 +22950,10 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" t="s" s="2">
@@ -23072,10 +23065,10 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" t="s" s="2">
@@ -23189,10 +23182,10 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" t="s" s="2">
@@ -23218,13 +23211,13 @@
         <v>104</v>
       </c>
       <c r="L177" t="s" s="2">
+        <v>676</v>
+      </c>
+      <c r="M177" t="s" s="2">
         <v>677</v>
       </c>
-      <c r="M177" t="s" s="2">
+      <c r="N177" t="s" s="2">
         <v>678</v>
-      </c>
-      <c r="N177" t="s" s="2">
-        <v>679</v>
       </c>
       <c r="O177" s="2"/>
       <c r="P177" t="s" s="2">
@@ -23232,7 +23225,7 @@
       </c>
       <c r="Q177" s="2"/>
       <c r="R177" t="s" s="2">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="S177" t="s" s="2">
         <v>82</v>
@@ -23274,7 +23267,7 @@
         <v>82</v>
       </c>
       <c r="AF177" t="s" s="2">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="AG177" t="s" s="2">
         <v>91</v>
@@ -23306,10 +23299,10 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" t="s" s="2">
@@ -23335,10 +23328,10 @@
         <v>206</v>
       </c>
       <c r="L178" t="s" s="2">
+        <v>682</v>
+      </c>
+      <c r="M178" t="s" s="2">
         <v>683</v>
-      </c>
-      <c r="M178" t="s" s="2">
-        <v>684</v>
       </c>
       <c r="N178" s="2"/>
       <c r="O178" s="2"/>
@@ -23389,7 +23382,7 @@
         <v>82</v>
       </c>
       <c r="AF178" t="s" s="2">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="AG178" t="s" s="2">
         <v>79</v>
@@ -23421,19 +23414,19 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
+        <v>694</v>
+      </c>
+      <c r="B179" t="s" s="2">
+        <v>664</v>
+      </c>
+      <c r="C179" t="s" s="2">
         <v>695</v>
       </c>
-      <c r="B179" t="s" s="2">
-        <v>665</v>
-      </c>
-      <c r="C179" t="s" s="2">
+      <c r="D179" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E179" t="s" s="2">
         <v>696</v>
-      </c>
-      <c r="D179" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E179" t="s" s="2">
-        <v>697</v>
       </c>
       <c r="F179" t="s" s="2">
         <v>79</v>
@@ -23454,10 +23447,10 @@
         <v>137</v>
       </c>
       <c r="L179" t="s" s="2">
+        <v>697</v>
+      </c>
+      <c r="M179" t="s" s="2">
         <v>698</v>
-      </c>
-      <c r="M179" t="s" s="2">
-        <v>699</v>
       </c>
       <c r="N179" s="2"/>
       <c r="O179" s="2"/>
@@ -23540,10 +23533,10 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" t="s" s="2">
@@ -23655,10 +23648,10 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" t="s" s="2">
@@ -23772,10 +23765,10 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" t="s" s="2">
@@ -23801,13 +23794,13 @@
         <v>104</v>
       </c>
       <c r="L182" t="s" s="2">
+        <v>676</v>
+      </c>
+      <c r="M182" t="s" s="2">
         <v>677</v>
       </c>
-      <c r="M182" t="s" s="2">
+      <c r="N182" t="s" s="2">
         <v>678</v>
-      </c>
-      <c r="N182" t="s" s="2">
-        <v>679</v>
       </c>
       <c r="O182" s="2"/>
       <c r="P182" t="s" s="2">
@@ -23815,7 +23808,7 @@
       </c>
       <c r="Q182" s="2"/>
       <c r="R182" t="s" s="2">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="S182" t="s" s="2">
         <v>82</v>
@@ -23857,7 +23850,7 @@
         <v>82</v>
       </c>
       <c r="AF182" t="s" s="2">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="AG182" t="s" s="2">
         <v>91</v>
@@ -23889,10 +23882,10 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C183" s="2"/>
       <c r="D183" t="s" s="2">
@@ -23918,10 +23911,10 @@
         <v>206</v>
       </c>
       <c r="L183" t="s" s="2">
+        <v>682</v>
+      </c>
+      <c r="M183" t="s" s="2">
         <v>683</v>
-      </c>
-      <c r="M183" t="s" s="2">
-        <v>684</v>
       </c>
       <c r="N183" s="2"/>
       <c r="O183" s="2"/>
@@ -23972,7 +23965,7 @@
         <v>82</v>
       </c>
       <c r="AF183" t="s" s="2">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="AG183" t="s" s="2">
         <v>79</v>
@@ -24004,10 +23997,10 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
+        <v>703</v>
+      </c>
+      <c r="B184" t="s" s="2">
         <v>704</v>
-      </c>
-      <c r="B184" t="s" s="2">
-        <v>705</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" t="s" s="2">
@@ -24033,13 +24026,13 @@
         <v>104</v>
       </c>
       <c r="L184" t="s" s="2">
+        <v>676</v>
+      </c>
+      <c r="M184" t="s" s="2">
         <v>677</v>
       </c>
-      <c r="M184" t="s" s="2">
+      <c r="N184" t="s" s="2">
         <v>678</v>
-      </c>
-      <c r="N184" t="s" s="2">
-        <v>679</v>
       </c>
       <c r="O184" s="2"/>
       <c r="P184" t="s" s="2">
@@ -24047,7 +24040,7 @@
       </c>
       <c r="Q184" s="2"/>
       <c r="R184" t="s" s="2">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="S184" t="s" s="2">
         <v>82</v>
@@ -24089,7 +24082,7 @@
         <v>82</v>
       </c>
       <c r="AF184" t="s" s="2">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="AG184" t="s" s="2">
         <v>91</v>
@@ -24121,10 +24114,10 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
+        <v>706</v>
+      </c>
+      <c r="B185" t="s" s="2">
         <v>707</v>
-      </c>
-      <c r="B185" t="s" s="2">
-        <v>708</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" t="s" s="2">
@@ -24147,13 +24140,13 @@
         <v>82</v>
       </c>
       <c r="K185" t="s" s="2">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="L185" t="s" s="2">
+        <v>682</v>
+      </c>
+      <c r="M185" t="s" s="2">
         <v>683</v>
-      </c>
-      <c r="M185" t="s" s="2">
-        <v>684</v>
       </c>
       <c r="N185" s="2"/>
       <c r="O185" s="2"/>
@@ -24204,7 +24197,7 @@
         <v>82</v>
       </c>
       <c r="AF185" t="s" s="2">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="AG185" t="s" s="2">
         <v>79</v>
@@ -24236,10 +24229,10 @@
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" t="s" s="2">
@@ -24355,10 +24348,10 @@
     </row>
     <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" t="s" s="2">
@@ -24384,10 +24377,10 @@
         <v>206</v>
       </c>
       <c r="L187" t="s" s="2">
+        <v>711</v>
+      </c>
+      <c r="M187" t="s" s="2">
         <v>712</v>
-      </c>
-      <c r="M187" t="s" s="2">
-        <v>713</v>
       </c>
       <c r="N187" s="2"/>
       <c r="O187" s="2"/>
@@ -24438,7 +24431,7 @@
         <v>82</v>
       </c>
       <c r="AF187" t="s" s="2">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="AG187" t="s" s="2">
         <v>79</v>
@@ -24470,10 +24463,10 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C188" s="2"/>
       <c r="D188" t="s" s="2">
@@ -24499,10 +24492,10 @@
         <v>348</v>
       </c>
       <c r="L188" t="s" s="2">
+        <v>714</v>
+      </c>
+      <c r="M188" t="s" s="2">
         <v>715</v>
-      </c>
-      <c r="M188" t="s" s="2">
-        <v>716</v>
       </c>
       <c r="N188" s="2"/>
       <c r="O188" s="2"/>
@@ -24553,7 +24546,7 @@
         <v>82</v>
       </c>
       <c r="AF188" t="s" s="2">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="AG188" t="s" s="2">
         <v>79</v>
@@ -24585,10 +24578,10 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" t="s" s="2">
@@ -24614,10 +24607,10 @@
         <v>187</v>
       </c>
       <c r="L189" t="s" s="2">
+        <v>717</v>
+      </c>
+      <c r="M189" t="s" s="2">
         <v>718</v>
-      </c>
-      <c r="M189" t="s" s="2">
-        <v>719</v>
       </c>
       <c r="N189" s="2"/>
       <c r="O189" s="2"/>
@@ -24647,11 +24640,11 @@
         <v>191</v>
       </c>
       <c r="Y189" t="s" s="2">
+        <v>719</v>
+      </c>
+      <c r="Z189" t="s" s="2">
         <v>720</v>
       </c>
-      <c r="Z189" t="s" s="2">
-        <v>721</v>
-      </c>
       <c r="AA189" t="s" s="2">
         <v>82</v>
       </c>
@@ -24668,7 +24661,7 @@
         <v>82</v>
       </c>
       <c r="AF189" t="s" s="2">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="AG189" t="s" s="2">
         <v>79</v>
@@ -24700,10 +24693,10 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" t="s" s="2">
@@ -24729,13 +24722,13 @@
         <v>206</v>
       </c>
       <c r="L190" t="s" s="2">
+        <v>722</v>
+      </c>
+      <c r="M190" t="s" s="2">
         <v>723</v>
       </c>
-      <c r="M190" t="s" s="2">
+      <c r="N190" t="s" s="2">
         <v>724</v>
-      </c>
-      <c r="N190" t="s" s="2">
-        <v>725</v>
       </c>
       <c r="O190" s="2"/>
       <c r="P190" t="s" s="2">
@@ -24764,11 +24757,11 @@
         <v>180</v>
       </c>
       <c r="Y190" t="s" s="2">
+        <v>725</v>
+      </c>
+      <c r="Z190" t="s" s="2">
         <v>726</v>
       </c>
-      <c r="Z190" t="s" s="2">
-        <v>727</v>
-      </c>
       <c r="AA190" t="s" s="2">
         <v>82</v>
       </c>
@@ -24785,7 +24778,7 @@
         <v>82</v>
       </c>
       <c r="AF190" t="s" s="2">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="AG190" t="s" s="2">
         <v>91</v>
@@ -24817,10 +24810,10 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" t="s" s="2">
@@ -24843,16 +24836,16 @@
         <v>82</v>
       </c>
       <c r="K191" t="s" s="2">
+        <v>728</v>
+      </c>
+      <c r="L191" t="s" s="2">
         <v>729</v>
       </c>
-      <c r="L191" t="s" s="2">
+      <c r="M191" t="s" s="2">
         <v>730</v>
       </c>
-      <c r="M191" t="s" s="2">
-        <v>731</v>
-      </c>
       <c r="N191" t="s" s="2">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="O191" s="2"/>
       <c r="P191" t="s" s="2">
@@ -24902,7 +24895,7 @@
         <v>82</v>
       </c>
       <c r="AF191" t="s" s="2">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="AG191" t="s" s="2">
         <v>79</v>
